--- a/stimuli, instructions and parameters.xlsx
+++ b/stimuli, instructions and parameters.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>a1_exemplar</t>
   </si>
@@ -97,11 +97,6 @@
   </si>
   <si>
     <t>inst_intro</t>
-  </si>
-  <si>
-    <t>This task will present you with nonsense words.
-Use the up, down, and right keys to choose the left, middle or right words respectively.
-Press any key to continue.</t>
   </si>
   <si>
     <t>Learn to respond to the words based on the feedback presented.
@@ -129,6 +124,15 @@
   </si>
   <si>
     <t>wrong_message</t>
+  </si>
+  <si>
+    <t>In this task you will learn about nonsense words.
+Each trial will present one word at the top of the screen, and three words at the bottom. 
+You must press the up, down, and right keys to choose between the left, middle or right words presented at the bottom of the screen.
+Press any key to continue.</t>
+  </si>
+  <si>
+    <t>max_testing</t>
   </si>
 </sst>
 </file>
@@ -170,8 +174,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="755">
+  <cellStyleXfs count="757">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -944,7 +950,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="755">
+  <cellStyles count="757">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1322,6 +1328,7 @@
     <cellStyle name="Followed Hyperlink" xfId="750" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="752" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="754" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="756" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1699,6 +1706,7 @@
     <cellStyle name="Hyperlink" xfId="749" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="751" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="753" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="755" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2026,10 +2034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2042,12 +2050,12 @@
     <col min="11" max="11" width="23.85546875" customWidth="1"/>
     <col min="12" max="12" width="13.5703125" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="15" max="15" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="25.28515625" customWidth="1"/>
-    <col min="19" max="20" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="25.28515625" customWidth="1"/>
+    <col min="20" max="21" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2076,10 +2084,10 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
         <v>28</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
       </c>
       <c r="L1" t="s">
         <v>19</v>
@@ -2091,25 +2099,28 @@
         <v>18</v>
       </c>
       <c r="O1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" t="s">
         <v>32</v>
       </c>
-      <c r="T1" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="2" spans="1:20" s="3" customFormat="1" ht="104">
+    <row r="2" spans="1:21" s="3" customFormat="1" ht="182">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -2153,22 +2164,25 @@
         <v>10</v>
       </c>
       <c r="O2" s="3">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3">
         <v>2</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/stimuli, instructions and parameters.xlsx
+++ b/stimuli, instructions and parameters.xlsx
@@ -126,13 +126,13 @@
     <t>wrong_message</t>
   </si>
   <si>
+    <t>max_testing</t>
+  </si>
+  <si>
     <t>In this task you will learn about nonsense words.
 Each trial will present one word at the top of the screen, and three words at the bottom. 
-You must press the up, down, and right keys to choose between the left, middle or right words presented at the bottom of the screen.
+You must press the left, down, or right key to choose between the left, middle or right words presented at the bottom of the screen.
 Press any key to continue.</t>
-  </si>
-  <si>
-    <t>max_testing</t>
   </si>
 </sst>
 </file>
@@ -2036,8 +2036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2099,7 +2099,7 @@
         <v>18</v>
       </c>
       <c r="O1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
         <v>21</v>
@@ -2170,7 +2170,7 @@
         <v>2</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>25</v>

--- a/stimuli, instructions and parameters.xlsx
+++ b/stimuli, instructions and parameters.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26929"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="sheet 1" sheetId="3" r:id="rId1"/>
@@ -2037,7 +2037,7 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2158,7 +2158,7 @@
         <v>16</v>
       </c>
       <c r="M2" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N2" s="3">
         <v>10</v>

--- a/stimuli, instructions and parameters.xlsx
+++ b/stimuli, instructions and parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26929"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="sheet 1" sheetId="3" r:id="rId1"/>
@@ -2036,8 +2036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2149,25 +2149,25 @@
         <v>17</v>
       </c>
       <c r="J2" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K2" s="3">
         <v>1</v>
       </c>
       <c r="L2" s="6">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="M2" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N2" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O2" s="3">
         <v>1</v>
       </c>
       <c r="P2" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>34</v>
